--- a/api/download_pdf_annual_report_2merged_data.xlsx
+++ b/api/download_pdf_annual_report_2merged_data.xlsx
@@ -484,12 +484,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>云南白药</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -499,19 +499,19 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>http://static.cninfo.com.cn/finalpage/2021-02-02/1209224370.PDF</t>
+          <t>http://static.cninfo.com.cn/finalpage/2021-03-27/1209463046.PDF</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>云南白药</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,19 +521,19 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>http://static.cninfo.com.cn/finalpage/2020-02-14/1207305488.PDF</t>
+          <t>http://static.cninfo.com.cn/finalpage/2020-03-27/1207410745.PDF</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>云南白药</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,19 +543,19 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>http://static.cninfo.com.cn/finalpage/2022-03-10/1212533413.PDF</t>
+          <t>http://static.cninfo.com.cn/finalpage/2022-03-26/1212688576.PDF</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>云南白药</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,12 +572,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>云南白药</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -594,12 +594,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>云南白药</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -609,19 +609,19 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>http://static.cninfo.com.cn/finalpage/2019-03-07/1205881066.PDF</t>
+          <t>http://static.cninfo.com.cn/finalpage/2019-03-22/1205925083.PDF</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>云南白药</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>http://static.cninfo.com.cn/finalpage/2018-03-15/1204477157.PDF</t>
+          <t>http://static.cninfo.com.cn/finalpage/2018-04-12/1204617005.PDF</t>
         </is>
       </c>
     </row>

--- a/api/download_pdf_annual_report_2merged_data.xlsx
+++ b/api/download_pdf_annual_report_2merged_data.xlsx
@@ -484,12 +484,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000538</t>
+          <t>603369</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>云南白药</t>
+          <t>今世缘</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -499,19 +499,19 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>http://static.cninfo.com.cn/finalpage/2021-03-27/1209463046.PDF</t>
+          <t>http://static.cninfo.com.cn/finalpage/2021-04-19/1209718345.PDF</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>000538</t>
+          <t>603369</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>云南白药</t>
+          <t>今世缘</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,19 +521,19 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>http://static.cninfo.com.cn/finalpage/2020-03-27/1207410745.PDF</t>
+          <t>http://static.cninfo.com.cn/finalpage/2020-04-29/1207670840.PDF</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>000538</t>
+          <t>603369</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>云南白药</t>
+          <t>今世缘</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,19 +543,19 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>http://static.cninfo.com.cn/finalpage/2022-03-26/1212688576.PDF</t>
+          <t>http://static.cninfo.com.cn/finalpage/2022-04-16/1212941015.PDF</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>000538</t>
+          <t>603369</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>云南白药</t>
+          <t>今世缘</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,12 +572,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>000538</t>
+          <t>603369</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>云南白药</t>
+          <t>今世缘</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -594,12 +594,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>000538</t>
+          <t>603369</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>云南白药</t>
+          <t>今世缘</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -609,19 +609,19 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>http://static.cninfo.com.cn/finalpage/2019-03-22/1205925083.PDF</t>
+          <t>http://static.cninfo.com.cn/finalpage/2019-04-13/1206016767.PDF</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>000538</t>
+          <t>603369</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>云南白药</t>
+          <t>今世缘</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>http://static.cninfo.com.cn/finalpage/2018-04-12/1204617005.PDF</t>
+          <t>http://static.cninfo.com.cn/finalpage/2018-04-28/1204829864.PDF</t>
         </is>
       </c>
     </row>
